--- a/data/output/FV2404_FV2310/UTILMD/55079.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55079.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15992" uniqueCount="1040">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16013" uniqueCount="1040">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3366,6 +3366,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U729" totalsRowShown="0">
+  <autoFilter ref="A1:U729"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3655,7 +3685,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -37881,5 +37914,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55079.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19568" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19246" uniqueCount="1753">
   <si>
     <t>#</t>
   </si>
@@ -11485,9 +11485,7 @@
         <v>622</v>
       </c>
       <c r="K109" s="2"/>
-      <c r="L109" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L109" s="7"/>
       <c r="M109" s="2" t="s">
         <v>45</v>
       </c>
@@ -11541,9 +11539,7 @@
         <v>622</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>45</v>
       </c>
@@ -11597,9 +11593,7 @@
         <v>622</v>
       </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L111" s="7"/>
       <c r="M111" s="2" t="s">
         <v>45</v>
       </c>
@@ -12025,9 +12019,7 @@
         <v>622</v>
       </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L119" s="7"/>
       <c r="M119" s="2" t="s">
         <v>47</v>
       </c>
@@ -12278,46 +12270,44 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2" t="s">
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="L124" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M124" s="2" t="s">
+      <c r="L124" s="7"/>
+      <c r="M124" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="N124" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2" t="s">
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="V124" s="2" t="s">
+      <c r="V124" s="5" t="s">
         <v>751</v>
       </c>
     </row>
@@ -12580,44 +12570,42 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2" t="s">
+      <c r="C130" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M130" s="2" t="s">
+      <c r="K130" s="5"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N130" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2" t="s">
+      <c r="N130" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V130" s="2"/>
+      <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="2" t="s">
@@ -12809,9 +12797,7 @@
         <v>622</v>
       </c>
       <c r="K134" s="2"/>
-      <c r="L134" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L134" s="7"/>
       <c r="M134" s="2" t="s">
         <v>51</v>
       </c>
@@ -12838,44 +12824,42 @@
       <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2" t="s">
+      <c r="C135" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M135" s="2" t="s">
+      <c r="K135" s="5"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N135" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2" t="s">
+      <c r="N135" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V135" s="2"/>
+      <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="2" t="s">
@@ -13268,46 +13252,44 @@
       <c r="V143" s="9"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2" t="s">
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="L144" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M144" s="2" t="s">
+      <c r="L144" s="7"/>
+      <c r="M144" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="N144" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2" t="s">
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="V144" s="2" t="s">
+      <c r="V144" s="5" t="s">
         <v>752</v>
       </c>
     </row>
@@ -13798,46 +13780,44 @@
       <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2" t="s">
+      <c r="C154" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="L154" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M154" s="2" t="s">
+      <c r="L154" s="7"/>
+      <c r="M154" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N154" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2" t="s">
+      <c r="N154" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="V154" s="2" t="s">
+      <c r="V154" s="5" t="s">
         <v>754</v>
       </c>
     </row>
@@ -14000,44 +13980,42 @@
       <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2" t="s">
+      <c r="C158" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K158" s="2"/>
-      <c r="L158" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M158" s="2" t="s">
+      <c r="K158" s="5"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2" t="s">
+      <c r="N158" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V158" s="2"/>
+      <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="2" t="s">
@@ -14275,9 +14253,7 @@
         <v>622</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L163" s="7"/>
       <c r="M163" s="2" t="s">
         <v>56</v>
       </c>
@@ -14358,44 +14334,42 @@
       <c r="V164" s="2"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2" t="s">
+      <c r="C165" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K165" s="2"/>
-      <c r="L165" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M165" s="2" t="s">
+      <c r="K165" s="5"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2" t="s">
+      <c r="N165" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V165" s="2"/>
+      <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="2" t="s">
@@ -14502,46 +14476,44 @@
       <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="L168" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M168" s="2" t="s">
+      <c r="L168" s="7"/>
+      <c r="M168" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="N168" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2" t="s">
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="V168" s="2" t="s">
+      <c r="V168" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -14816,46 +14788,44 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="L174" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M174" s="2" t="s">
+      <c r="L174" s="7"/>
+      <c r="M174" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="N174" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2" t="s">
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="V174" s="2" t="s">
+      <c r="V174" s="5" t="s">
         <v>756</v>
       </c>
     </row>
@@ -14991,9 +14961,7 @@
         <v>622</v>
       </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L177" s="7"/>
       <c r="M177" s="2" t="s">
         <v>60</v>
       </c>
@@ -15049,9 +15017,7 @@
       <c r="K178" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="L178" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L178" s="7"/>
       <c r="M178" s="2" t="s">
         <v>60</v>
       </c>
@@ -15223,9 +15189,7 @@
         <v>658</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L181" s="7"/>
       <c r="M181" s="2" t="s">
         <v>60</v>
       </c>
@@ -15281,9 +15245,7 @@
       <c r="K182" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="L182" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L182" s="7"/>
       <c r="M182" s="2" t="s">
         <v>60</v>
       </c>
@@ -15312,46 +15274,44 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="N183" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="V183" s="2" t="s">
+      <c r="V183" s="5" t="s">
         <v>760</v>
       </c>
     </row>
@@ -15576,44 +15536,42 @@
       <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
+      <c r="C188" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K188" s="2"/>
-      <c r="L188" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="K188" s="5"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N188" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2" t="s">
+      <c r="N188" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V188" s="2"/>
+      <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="2" t="s">
@@ -15778,44 +15736,42 @@
       <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2" t="s">
+      <c r="C192" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K192" s="2"/>
-      <c r="L192" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M192" s="2" t="s">
+      <c r="K192" s="5"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N192" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2" t="s">
+      <c r="N192" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V192" s="2"/>
+      <c r="V192" s="5"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="2" t="s">
@@ -16323,9 +16279,7 @@
         <v>622</v>
       </c>
       <c r="K202" s="2"/>
-      <c r="L202" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L202" s="7"/>
       <c r="M202" s="2" t="s">
         <v>53</v>
       </c>
@@ -16480,44 +16434,42 @@
       <c r="V205" s="9"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2" t="s">
+      <c r="C206" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M206" s="2" t="s">
+      <c r="K206" s="5"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N206" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2" t="s">
+      <c r="N206" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V206" s="2"/>
+      <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="2" t="s">
@@ -16678,46 +16630,44 @@
       <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
+      <c r="C210" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="K210" s="2" t="s">
+      <c r="K210" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="L210" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M210" s="2" t="s">
+      <c r="L210" s="7"/>
+      <c r="M210" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N210" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
+      <c r="N210" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="V210" s="2" t="s">
+      <c r="V210" s="5" t="s">
         <v>762</v>
       </c>
     </row>
@@ -16880,44 +16830,42 @@
       <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2" t="s">
+      <c r="C214" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M214" s="2" t="s">
+      <c r="K214" s="5"/>
+      <c r="L214" s="7"/>
+      <c r="M214" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N214" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2" t="s">
+      <c r="N214" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V214" s="2"/>
+      <c r="V214" s="5"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="2" t="s">
@@ -17078,46 +17026,44 @@
       <c r="V217" s="2"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2" t="s">
+      <c r="C218" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="K218" s="2" t="s">
+      <c r="K218" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="L218" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M218" s="2" t="s">
+      <c r="L218" s="7"/>
+      <c r="M218" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N218" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2" t="s">
+      <c r="N218" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="5"/>
+      <c r="S218" s="5"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="V218" s="2" t="s">
+      <c r="V218" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -17384,44 +17330,42 @@
       <c r="V223" s="2"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2" t="s">
+      <c r="C224" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M224" s="2" t="s">
+      <c r="K224" s="5"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N224" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2" t="s">
+      <c r="N224" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V224" s="2"/>
+      <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="2" t="s">
@@ -17659,9 +17603,7 @@
         <v>622</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L229" s="7"/>
       <c r="M229" s="2" t="s">
         <v>68</v>
       </c>
@@ -17715,9 +17657,7 @@
         <v>622</v>
       </c>
       <c r="K230" s="2"/>
-      <c r="L230" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L230" s="7"/>
       <c r="M230" s="2" t="s">
         <v>68</v>
       </c>
@@ -17771,9 +17711,7 @@
         <v>622</v>
       </c>
       <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L231" s="7"/>
       <c r="M231" s="2" t="s">
         <v>68</v>
       </c>
@@ -17935,9 +17873,7 @@
         <v>665</v>
       </c>
       <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L234" s="7"/>
       <c r="M234" s="2" t="s">
         <v>69</v>
       </c>
@@ -17993,9 +17929,7 @@
       <c r="K235" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="L235" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L235" s="7"/>
       <c r="M235" s="2" t="s">
         <v>69</v>
       </c>
@@ -18024,44 +17958,42 @@
       </c>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2" t="s">
+      <c r="C236" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K236" s="2"/>
-      <c r="L236" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M236" s="2" t="s">
+      <c r="K236" s="5"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N236" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2" t="s">
+      <c r="N236" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V236" s="2"/>
+      <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="2" t="s">
@@ -18299,9 +18231,7 @@
         <v>622</v>
       </c>
       <c r="K241" s="2"/>
-      <c r="L241" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L241" s="7"/>
       <c r="M241" s="2" t="s">
         <v>70</v>
       </c>
@@ -18328,44 +18258,42 @@
       <c r="V241" s="2"/>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2" t="s">
+      <c r="C242" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M242" s="2" t="s">
+      <c r="K242" s="5"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N242" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2" t="s">
+      <c r="N242" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V242" s="2"/>
+      <c r="V242" s="5"/>
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="2" t="s">
@@ -18557,9 +18485,7 @@
         <v>622</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L246" s="7"/>
       <c r="M246" s="2" t="s">
         <v>71</v>
       </c>
@@ -18586,44 +18512,42 @@
       <c r="V246" s="2"/>
     </row>
     <row r="247" spans="1:22">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2" t="s">
+      <c r="C247" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K247" s="2"/>
-      <c r="L247" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M247" s="2" t="s">
+      <c r="K247" s="5"/>
+      <c r="L247" s="7"/>
+      <c r="M247" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N247" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2" t="s">
+      <c r="N247" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+      <c r="R247" s="5"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V247" s="2"/>
+      <c r="V247" s="5"/>
     </row>
     <row r="248" spans="1:22">
       <c r="A248" s="2" t="s">
@@ -18757,9 +18681,7 @@
         <v>668</v>
       </c>
       <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L250" s="7"/>
       <c r="M250" s="2" t="s">
         <v>72</v>
       </c>
@@ -18921,9 +18843,7 @@
         <v>668</v>
       </c>
       <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L253" s="7"/>
       <c r="M253" s="2" t="s">
         <v>73</v>
       </c>
@@ -18977,9 +18897,7 @@
         <v>668</v>
       </c>
       <c r="K254" s="2"/>
-      <c r="L254" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L254" s="7"/>
       <c r="M254" s="2" t="s">
         <v>73</v>
       </c>
@@ -19006,46 +18924,44 @@
       <c r="V254" s="2"/>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2" t="s">
+      <c r="C255" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K255" s="2" t="s">
+      <c r="K255" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="L255" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M255" s="2" t="s">
+      <c r="L255" s="7"/>
+      <c r="M255" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N255" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2" t="s">
+      <c r="N255" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V255" s="2" t="s">
+      <c r="V255" s="5" t="s">
         <v>766</v>
       </c>
     </row>
@@ -19285,9 +19201,7 @@
         <v>622</v>
       </c>
       <c r="K260" s="2"/>
-      <c r="L260" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L260" s="7"/>
       <c r="M260" s="2" t="s">
         <v>75</v>
       </c>
@@ -19341,9 +19255,7 @@
         <v>622</v>
       </c>
       <c r="K261" s="2"/>
-      <c r="L261" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L261" s="7"/>
       <c r="M261" s="2" t="s">
         <v>75</v>
       </c>
@@ -19397,9 +19309,7 @@
         <v>622</v>
       </c>
       <c r="K262" s="2"/>
-      <c r="L262" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L262" s="7"/>
       <c r="M262" s="2" t="s">
         <v>75</v>
       </c>
@@ -19453,9 +19363,7 @@
         <v>622</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L263" s="7"/>
       <c r="M263" s="2" t="s">
         <v>75</v>
       </c>
@@ -19482,46 +19390,44 @@
       <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
+      <c r="C264" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="K264" s="2" t="s">
+      <c r="K264" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="L264" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
+      <c r="N264" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="V264" s="2" t="s">
+      <c r="V264" s="5" t="s">
         <v>767</v>
       </c>
     </row>
@@ -19782,44 +19688,42 @@
       <c r="V269" s="9"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2" t="s">
+      <c r="C270" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K270" s="2"/>
-      <c r="L270" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M270" s="2" t="s">
+      <c r="K270" s="5"/>
+      <c r="L270" s="7"/>
+      <c r="M270" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N270" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2" t="s">
+      <c r="N270" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V270" s="2"/>
+      <c r="V270" s="5"/>
     </row>
     <row r="271" spans="1:22">
       <c r="A271" s="2" t="s">
@@ -20238,46 +20142,44 @@
       <c r="V278" s="2"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2" t="s">
+      <c r="C279" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="K279" s="2" t="s">
+      <c r="K279" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="L279" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M279" s="2" t="s">
+      <c r="L279" s="7"/>
+      <c r="M279" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N279" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
-      <c r="S279" s="2"/>
-      <c r="T279" s="2"/>
-      <c r="U279" s="2" t="s">
+      <c r="N279" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="V279" s="2" t="s">
+      <c r="V279" s="5" t="s">
         <v>768</v>
       </c>
     </row>
@@ -20556,46 +20458,44 @@
       <c r="V284" s="2"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2" t="s">
+      <c r="C285" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="K285" s="2" t="s">
+      <c r="K285" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="L285" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M285" s="2" t="s">
+      <c r="L285" s="7"/>
+      <c r="M285" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N285" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
-      <c r="Q285" s="2"/>
-      <c r="R285" s="2"/>
-      <c r="S285" s="2"/>
-      <c r="T285" s="2"/>
-      <c r="U285" s="2" t="s">
+      <c r="N285" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="5"/>
+      <c r="U285" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="V285" s="2" t="s">
+      <c r="V285" s="5" t="s">
         <v>767</v>
       </c>
     </row>
@@ -20789,9 +20689,7 @@
         <v>622</v>
       </c>
       <c r="K289" s="2"/>
-      <c r="L289" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L289" s="7"/>
       <c r="M289" s="2" t="s">
         <v>79</v>
       </c>
@@ -20845,9 +20743,7 @@
         <v>622</v>
       </c>
       <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L290" s="7"/>
       <c r="M290" s="2" t="s">
         <v>79</v>
       </c>
@@ -20874,46 +20770,44 @@
       <c r="V290" s="2"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2" t="s">
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="K291" s="2" t="s">
+      <c r="K291" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="L291" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M291" s="2" t="s">
+      <c r="L291" s="7"/>
+      <c r="M291" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N291" s="2" t="s">
+      <c r="N291" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2" t="s">
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="V291" s="2" t="s">
+      <c r="V291" s="5" t="s">
         <v>769</v>
       </c>
     </row>
@@ -21404,46 +21298,44 @@
       <c r="V300" s="2"/>
     </row>
     <row r="301" spans="1:22">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-      <c r="J301" s="2" t="s">
+      <c r="C301" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="K301" s="2" t="s">
+      <c r="K301" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="L301" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M301" s="2" t="s">
+      <c r="L301" s="7"/>
+      <c r="M301" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N301" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
-      <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
-      <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
-      <c r="U301" s="2" t="s">
+      <c r="N301" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="V301" s="2" t="s">
+      <c r="V301" s="5" t="s">
         <v>771</v>
       </c>
     </row>
@@ -21683,9 +21575,7 @@
         <v>622</v>
       </c>
       <c r="K306" s="2"/>
-      <c r="L306" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L306" s="7"/>
       <c r="M306" s="2" t="s">
         <v>82</v>
       </c>
@@ -21739,9 +21629,7 @@
         <v>622</v>
       </c>
       <c r="K307" s="2"/>
-      <c r="L307" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L307" s="7"/>
       <c r="M307" s="2" t="s">
         <v>82</v>
       </c>
@@ -21795,9 +21683,7 @@
         <v>622</v>
       </c>
       <c r="K308" s="2"/>
-      <c r="L308" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L308" s="7"/>
       <c r="M308" s="2" t="s">
         <v>82</v>
       </c>
@@ -21824,44 +21710,42 @@
       <c r="V308" s="2"/>
     </row>
     <row r="309" spans="1:22">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2" t="s">
+      <c r="C309" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K309" s="2"/>
-      <c r="L309" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M309" s="2" t="s">
+      <c r="K309" s="5"/>
+      <c r="L309" s="7"/>
+      <c r="M309" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N309" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
-      <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
-      <c r="S309" s="2"/>
-      <c r="T309" s="2"/>
-      <c r="U309" s="2" t="s">
+      <c r="N309" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V309" s="2"/>
+      <c r="V309" s="5"/>
     </row>
     <row r="310" spans="1:22">
       <c r="A310" s="2" t="s">
@@ -22099,9 +21983,7 @@
         <v>676</v>
       </c>
       <c r="K314" s="2"/>
-      <c r="L314" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L314" s="7"/>
       <c r="M314" s="2" t="s">
         <v>84</v>
       </c>
@@ -22155,9 +22037,7 @@
         <v>677</v>
       </c>
       <c r="K315" s="2"/>
-      <c r="L315" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L315" s="7"/>
       <c r="M315" s="2" t="s">
         <v>84</v>
       </c>
@@ -22211,9 +22091,7 @@
         <v>678</v>
       </c>
       <c r="K316" s="2"/>
-      <c r="L316" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L316" s="7"/>
       <c r="M316" s="2" t="s">
         <v>84</v>
       </c>
@@ -22240,46 +22118,44 @@
       <c r="V316" s="2"/>
     </row>
     <row r="317" spans="1:22">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2" t="s">
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K317" s="2" t="s">
+      <c r="K317" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="L317" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M317" s="2" t="s">
+      <c r="L317" s="7"/>
+      <c r="M317" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N317" s="2" t="s">
+      <c r="N317" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O317" s="2"/>
-      <c r="P317" s="2"/>
-      <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
-      <c r="S317" s="2"/>
-      <c r="T317" s="2"/>
-      <c r="U317" s="2" t="s">
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="V317" s="2" t="s">
+      <c r="V317" s="5" t="s">
         <v>763</v>
       </c>
     </row>
@@ -22766,44 +22642,42 @@
       <c r="V326" s="2"/>
     </row>
     <row r="327" spans="1:22">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="5" t="s">
         <v>1350</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-      <c r="J327" s="2" t="s">
+      <c r="C327" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K327" s="2"/>
-      <c r="L327" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M327" s="2" t="s">
+      <c r="K327" s="5"/>
+      <c r="L327" s="7"/>
+      <c r="M327" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N327" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
-      <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
-      <c r="S327" s="2"/>
-      <c r="T327" s="2"/>
-      <c r="U327" s="2" t="s">
+      <c r="N327" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
+      <c r="Q327" s="5"/>
+      <c r="R327" s="5"/>
+      <c r="S327" s="5"/>
+      <c r="T327" s="5"/>
+      <c r="U327" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V327" s="2"/>
+      <c r="V327" s="5"/>
     </row>
     <row r="328" spans="1:22">
       <c r="A328" s="2" t="s">
@@ -22970,44 +22844,42 @@
       <c r="V330" s="2"/>
     </row>
     <row r="331" spans="1:22">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2" t="s">
+      <c r="C331" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M331" s="2" t="s">
+      <c r="K331" s="5"/>
+      <c r="L331" s="7"/>
+      <c r="M331" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N331" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="U331" s="2" t="s">
+      <c r="N331" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O331" s="5"/>
+      <c r="P331" s="5"/>
+      <c r="Q331" s="5"/>
+      <c r="R331" s="5"/>
+      <c r="S331" s="5"/>
+      <c r="T331" s="5"/>
+      <c r="U331" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V331" s="2"/>
+      <c r="V331" s="5"/>
     </row>
     <row r="332" spans="1:22">
       <c r="A332" s="2" t="s">
@@ -23114,46 +22986,44 @@
       <c r="V333" s="2"/>
     </row>
     <row r="334" spans="1:22">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2" t="s">
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="K334" s="2" t="s">
+      <c r="K334" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="L334" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M334" s="2" t="s">
+      <c r="L334" s="7"/>
+      <c r="M334" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N334" s="2" t="s">
+      <c r="N334" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
-      <c r="T334" s="2"/>
-      <c r="U334" s="2" t="s">
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="V334" s="2" t="s">
+      <c r="V334" s="5" t="s">
         <v>772</v>
       </c>
     </row>
@@ -23482,46 +23352,44 @@
       <c r="V340" s="2"/>
     </row>
     <row r="341" spans="1:22">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C341" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
-      <c r="J341" s="2" t="s">
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="K341" s="2" t="s">
+      <c r="K341" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="L341" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M341" s="2" t="s">
+      <c r="L341" s="7"/>
+      <c r="M341" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N341" s="2" t="s">
+      <c r="N341" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O341" s="2"/>
-      <c r="P341" s="2"/>
-      <c r="Q341" s="2"/>
-      <c r="R341" s="2"/>
-      <c r="S341" s="2"/>
-      <c r="T341" s="2"/>
-      <c r="U341" s="2" t="s">
+      <c r="O341" s="5"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
+      <c r="R341" s="5"/>
+      <c r="S341" s="5"/>
+      <c r="T341" s="5"/>
+      <c r="U341" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="V341" s="2" t="s">
+      <c r="V341" s="5" t="s">
         <v>773</v>
       </c>
     </row>
@@ -24060,46 +23928,44 @@
       <c r="V351" s="2"/>
     </row>
     <row r="352" spans="1:22">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
-      <c r="H352" s="2"/>
-      <c r="I352" s="2"/>
-      <c r="J352" s="2" t="s">
+      <c r="C352" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K352" s="2" t="s">
+      <c r="K352" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="L352" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M352" s="2" t="s">
+      <c r="L352" s="7"/>
+      <c r="M352" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N352" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O352" s="2"/>
-      <c r="P352" s="2"/>
-      <c r="Q352" s="2"/>
-      <c r="R352" s="2"/>
-      <c r="S352" s="2"/>
-      <c r="T352" s="2"/>
-      <c r="U352" s="2" t="s">
+      <c r="N352" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O352" s="5"/>
+      <c r="P352" s="5"/>
+      <c r="Q352" s="5"/>
+      <c r="R352" s="5"/>
+      <c r="S352" s="5"/>
+      <c r="T352" s="5"/>
+      <c r="U352" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V352" s="2" t="s">
+      <c r="V352" s="5" t="s">
         <v>777</v>
       </c>
     </row>
@@ -24262,46 +24128,44 @@
       <c r="V355" s="2"/>
     </row>
     <row r="356" spans="1:22">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2" t="s">
+      <c r="C356" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="K356" s="2" t="s">
+      <c r="K356" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="L356" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M356" s="2" t="s">
+      <c r="L356" s="7"/>
+      <c r="M356" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N356" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O356" s="2"/>
-      <c r="P356" s="2"/>
-      <c r="Q356" s="2"/>
-      <c r="R356" s="2"/>
-      <c r="S356" s="2"/>
-      <c r="T356" s="2"/>
-      <c r="U356" s="2" t="s">
+      <c r="N356" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O356" s="5"/>
+      <c r="P356" s="5"/>
+      <c r="Q356" s="5"/>
+      <c r="R356" s="5"/>
+      <c r="S356" s="5"/>
+      <c r="T356" s="5"/>
+      <c r="U356" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="V356" s="2" t="s">
+      <c r="V356" s="5" t="s">
         <v>767</v>
       </c>
     </row>
@@ -24541,9 +24405,7 @@
         <v>622</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="2" t="s">
         <v>76</v>
       </c>
@@ -24803,9 +24665,7 @@
         <v>622</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L366" s="7"/>
       <c r="M366" s="2" t="s">
         <v>92</v>
       </c>
@@ -24832,46 +24692,44 @@
       <c r="V366" s="2"/>
     </row>
     <row r="367" spans="1:22">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2" t="s">
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="K367" s="2" t="s">
+      <c r="K367" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="L367" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M367" s="2" t="s">
+      <c r="L367" s="7"/>
+      <c r="M367" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N367" s="2" t="s">
+      <c r="N367" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O367" s="2"/>
-      <c r="P367" s="2"/>
-      <c r="Q367" s="2"/>
-      <c r="R367" s="2"/>
-      <c r="S367" s="2"/>
-      <c r="T367" s="2"/>
-      <c r="U367" s="2" t="s">
+      <c r="O367" s="5"/>
+      <c r="P367" s="5"/>
+      <c r="Q367" s="5"/>
+      <c r="R367" s="5"/>
+      <c r="S367" s="5"/>
+      <c r="T367" s="5"/>
+      <c r="U367" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="V367" s="2" t="s">
+      <c r="V367" s="5" t="s">
         <v>779</v>
       </c>
     </row>
@@ -25362,44 +25220,42 @@
       <c r="V376" s="2"/>
     </row>
     <row r="377" spans="1:22">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
-      <c r="H377" s="2"/>
-      <c r="I377" s="2"/>
-      <c r="J377" s="2" t="s">
+      <c r="C377" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M377" s="2" t="s">
+      <c r="K377" s="5"/>
+      <c r="L377" s="7"/>
+      <c r="M377" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N377" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O377" s="2"/>
-      <c r="P377" s="2"/>
-      <c r="Q377" s="2"/>
-      <c r="R377" s="2"/>
-      <c r="S377" s="2"/>
-      <c r="T377" s="2"/>
-      <c r="U377" s="2" t="s">
+      <c r="N377" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O377" s="5"/>
+      <c r="P377" s="5"/>
+      <c r="Q377" s="5"/>
+      <c r="R377" s="5"/>
+      <c r="S377" s="5"/>
+      <c r="T377" s="5"/>
+      <c r="U377" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V377" s="2"/>
+      <c r="V377" s="5"/>
     </row>
     <row r="378" spans="1:22">
       <c r="A378" s="2" t="s">
@@ -25637,9 +25493,7 @@
         <v>685</v>
       </c>
       <c r="K382" s="2"/>
-      <c r="L382" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L382" s="7"/>
       <c r="M382" s="2" t="s">
         <v>84</v>
       </c>
@@ -25666,46 +25520,44 @@
       <c r="V382" s="2"/>
     </row>
     <row r="383" spans="1:22">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2"/>
-      <c r="I383" s="2"/>
-      <c r="J383" s="2" t="s">
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="K383" s="2" t="s">
+      <c r="K383" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="L383" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M383" s="2" t="s">
+      <c r="L383" s="7"/>
+      <c r="M383" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N383" s="2" t="s">
+      <c r="N383" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
-      <c r="Q383" s="2"/>
-      <c r="R383" s="2"/>
-      <c r="S383" s="2"/>
-      <c r="T383" s="2"/>
-      <c r="U383" s="2" t="s">
+      <c r="O383" s="5"/>
+      <c r="P383" s="5"/>
+      <c r="Q383" s="5"/>
+      <c r="R383" s="5"/>
+      <c r="S383" s="5"/>
+      <c r="T383" s="5"/>
+      <c r="U383" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="V383" s="2" t="s">
+      <c r="V383" s="5" t="s">
         <v>781</v>
       </c>
     </row>
@@ -26724,46 +26576,44 @@
       </c>
     </row>
     <row r="404" spans="1:22">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-      <c r="J404" s="2" t="s">
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="K404" s="2" t="s">
+      <c r="K404" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="L404" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M404" s="2" t="s">
+      <c r="L404" s="7"/>
+      <c r="M404" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N404" s="2" t="s">
+      <c r="N404" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O404" s="2"/>
-      <c r="P404" s="2"/>
-      <c r="Q404" s="2"/>
-      <c r="R404" s="2"/>
-      <c r="S404" s="2"/>
-      <c r="T404" s="2"/>
-      <c r="U404" s="2" t="s">
+      <c r="O404" s="5"/>
+      <c r="P404" s="5"/>
+      <c r="Q404" s="5"/>
+      <c r="R404" s="5"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="V404" s="2" t="s">
+      <c r="V404" s="5" t="s">
         <v>786</v>
       </c>
     </row>
@@ -26984,46 +26834,44 @@
       <c r="V408" s="2"/>
     </row>
     <row r="409" spans="1:22">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2" t="s">
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="K409" s="2" t="s">
+      <c r="K409" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="L409" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M409" s="2" t="s">
+      <c r="L409" s="7"/>
+      <c r="M409" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N409" s="2" t="s">
+      <c r="N409" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
-      <c r="R409" s="2"/>
-      <c r="S409" s="2"/>
-      <c r="T409" s="2"/>
-      <c r="U409" s="2" t="s">
+      <c r="O409" s="5"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="5"/>
+      <c r="R409" s="5"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="V409" s="2" t="s">
+      <c r="V409" s="5" t="s">
         <v>787</v>
       </c>
     </row>
@@ -27244,46 +27092,44 @@
       <c r="V413" s="2"/>
     </row>
     <row r="414" spans="1:22">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="2"/>
-      <c r="J414" s="2" t="s">
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="K414" s="2" t="s">
+      <c r="K414" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="L414" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M414" s="2" t="s">
+      <c r="L414" s="7"/>
+      <c r="M414" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N414" s="2" t="s">
+      <c r="N414" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O414" s="2"/>
-      <c r="P414" s="2"/>
-      <c r="Q414" s="2"/>
-      <c r="R414" s="2"/>
-      <c r="S414" s="2"/>
-      <c r="T414" s="2"/>
-      <c r="U414" s="2" t="s">
+      <c r="O414" s="5"/>
+      <c r="P414" s="5"/>
+      <c r="Q414" s="5"/>
+      <c r="R414" s="5"/>
+      <c r="S414" s="5"/>
+      <c r="T414" s="5"/>
+      <c r="U414" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="V414" s="2" t="s">
+      <c r="V414" s="5" t="s">
         <v>786</v>
       </c>
     </row>
@@ -27504,44 +27350,42 @@
       <c r="V418" s="2"/>
     </row>
     <row r="419" spans="1:22">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2" t="s">
+      <c r="C419" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K419" s="2"/>
-      <c r="L419" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M419" s="2" t="s">
+      <c r="K419" s="5"/>
+      <c r="L419" s="7"/>
+      <c r="M419" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N419" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O419" s="2"/>
-      <c r="P419" s="2"/>
-      <c r="Q419" s="2"/>
-      <c r="R419" s="2"/>
-      <c r="S419" s="2"/>
-      <c r="T419" s="2"/>
-      <c r="U419" s="2" t="s">
+      <c r="N419" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O419" s="5"/>
+      <c r="P419" s="5"/>
+      <c r="Q419" s="5"/>
+      <c r="R419" s="5"/>
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V419" s="2"/>
+      <c r="V419" s="5"/>
     </row>
     <row r="420" spans="1:22">
       <c r="A420" s="2" t="s">
@@ -27675,9 +27519,7 @@
         <v>622</v>
       </c>
       <c r="K422" s="2"/>
-      <c r="L422" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="2" t="s">
         <v>104</v>
       </c>
@@ -27731,9 +27573,7 @@
         <v>622</v>
       </c>
       <c r="K423" s="2"/>
-      <c r="L423" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L423" s="7"/>
       <c r="M423" s="2" t="s">
         <v>104</v>
       </c>
@@ -27895,9 +27735,7 @@
         <v>622</v>
       </c>
       <c r="K426" s="2"/>
-      <c r="L426" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L426" s="7"/>
       <c r="M426" s="2" t="s">
         <v>105</v>
       </c>
@@ -27951,9 +27789,7 @@
         <v>622</v>
       </c>
       <c r="K427" s="2"/>
-      <c r="L427" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L427" s="7"/>
       <c r="M427" s="2" t="s">
         <v>105</v>
       </c>
@@ -28007,9 +27843,7 @@
         <v>622</v>
       </c>
       <c r="K428" s="2"/>
-      <c r="L428" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L428" s="7"/>
       <c r="M428" s="2" t="s">
         <v>105</v>
       </c>
@@ -28063,9 +27897,7 @@
         <v>622</v>
       </c>
       <c r="K429" s="2"/>
-      <c r="L429" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L429" s="7"/>
       <c r="M429" s="2" t="s">
         <v>105</v>
       </c>
@@ -28227,9 +28059,7 @@
         <v>622</v>
       </c>
       <c r="K432" s="2"/>
-      <c r="L432" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L432" s="7"/>
       <c r="M432" s="2" t="s">
         <v>106</v>
       </c>
@@ -28283,9 +28113,7 @@
         <v>622</v>
       </c>
       <c r="K433" s="2"/>
-      <c r="L433" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L433" s="7"/>
       <c r="M433" s="2" t="s">
         <v>106</v>
       </c>
@@ -28339,9 +28167,7 @@
         <v>622</v>
       </c>
       <c r="K434" s="2"/>
-      <c r="L434" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L434" s="7"/>
       <c r="M434" s="2" t="s">
         <v>106</v>
       </c>
@@ -28368,46 +28194,44 @@
       <c r="V434" s="2"/>
     </row>
     <row r="435" spans="1:22">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2" t="s">
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="K435" s="2" t="s">
+      <c r="K435" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="L435" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M435" s="2" t="s">
+      <c r="L435" s="7"/>
+      <c r="M435" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N435" s="2" t="s">
+      <c r="N435" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O435" s="2"/>
-      <c r="P435" s="2"/>
-      <c r="Q435" s="2"/>
-      <c r="R435" s="2"/>
-      <c r="S435" s="2"/>
-      <c r="T435" s="2"/>
-      <c r="U435" s="2" t="s">
+      <c r="O435" s="5"/>
+      <c r="P435" s="5"/>
+      <c r="Q435" s="5"/>
+      <c r="R435" s="5"/>
+      <c r="S435" s="5"/>
+      <c r="T435" s="5"/>
+      <c r="U435" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="V435" s="2" t="s">
+      <c r="V435" s="5" t="s">
         <v>789</v>
       </c>
     </row>
@@ -28678,44 +28502,42 @@
       </c>
     </row>
     <row r="441" spans="1:22">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2"/>
-      <c r="I441" s="2"/>
-      <c r="J441" s="2" t="s">
+      <c r="C441" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
+      <c r="I441" s="5"/>
+      <c r="J441" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K441" s="2"/>
-      <c r="L441" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M441" s="2" t="s">
+      <c r="K441" s="5"/>
+      <c r="L441" s="7"/>
+      <c r="M441" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N441" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O441" s="2"/>
-      <c r="P441" s="2"/>
-      <c r="Q441" s="2"/>
-      <c r="R441" s="2"/>
-      <c r="S441" s="2"/>
-      <c r="T441" s="2"/>
-      <c r="U441" s="2" t="s">
+      <c r="N441" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O441" s="5"/>
+      <c r="P441" s="5"/>
+      <c r="Q441" s="5"/>
+      <c r="R441" s="5"/>
+      <c r="S441" s="5"/>
+      <c r="T441" s="5"/>
+      <c r="U441" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V441" s="2"/>
+      <c r="V441" s="5"/>
     </row>
     <row r="442" spans="1:22">
       <c r="A442" s="2" t="s">
@@ -29011,9 +28833,7 @@
         <v>622</v>
       </c>
       <c r="K447" s="2"/>
-      <c r="L447" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L447" s="7"/>
       <c r="M447" s="2" t="s">
         <v>109</v>
       </c>
@@ -29040,44 +28860,42 @@
       <c r="V447" s="2"/>
     </row>
     <row r="448" spans="1:22">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-      <c r="J448" s="2" t="s">
+      <c r="C448" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K448" s="2"/>
-      <c r="L448" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M448" s="2" t="s">
+      <c r="K448" s="5"/>
+      <c r="L448" s="7"/>
+      <c r="M448" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N448" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O448" s="2"/>
-      <c r="P448" s="2"/>
-      <c r="Q448" s="2"/>
-      <c r="R448" s="2"/>
-      <c r="S448" s="2"/>
-      <c r="T448" s="2"/>
-      <c r="U448" s="2" t="s">
+      <c r="N448" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O448" s="5"/>
+      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V448" s="2"/>
+      <c r="V448" s="5"/>
     </row>
     <row r="449" spans="1:22">
       <c r="A449" s="2" t="s">
@@ -29470,46 +29288,44 @@
       <c r="V456" s="9"/>
     </row>
     <row r="457" spans="1:22">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="C457" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="2"/>
-      <c r="J457" s="2" t="s">
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
+      <c r="I457" s="5"/>
+      <c r="J457" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="K457" s="2" t="s">
+      <c r="K457" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="L457" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M457" s="2" t="s">
+      <c r="L457" s="7"/>
+      <c r="M457" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N457" s="2" t="s">
+      <c r="N457" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O457" s="2"/>
-      <c r="P457" s="2"/>
-      <c r="Q457" s="2"/>
-      <c r="R457" s="2"/>
-      <c r="S457" s="2"/>
-      <c r="T457" s="2"/>
-      <c r="U457" s="2" t="s">
+      <c r="O457" s="5"/>
+      <c r="P457" s="5"/>
+      <c r="Q457" s="5"/>
+      <c r="R457" s="5"/>
+      <c r="S457" s="5"/>
+      <c r="T457" s="5"/>
+      <c r="U457" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="V457" s="2" t="s">
+      <c r="V457" s="5" t="s">
         <v>790</v>
       </c>
     </row>
@@ -29996,44 +29812,42 @@
       <c r="V466" s="2"/>
     </row>
     <row r="467" spans="1:22">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-      <c r="I467" s="2"/>
-      <c r="J467" s="2" t="s">
+      <c r="C467" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K467" s="2"/>
-      <c r="L467" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M467" s="2" t="s">
+      <c r="K467" s="5"/>
+      <c r="L467" s="7"/>
+      <c r="M467" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N467" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
-      <c r="Q467" s="2"/>
-      <c r="R467" s="2"/>
-      <c r="S467" s="2"/>
-      <c r="T467" s="2"/>
-      <c r="U467" s="2" t="s">
+      <c r="N467" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O467" s="5"/>
+      <c r="P467" s="5"/>
+      <c r="Q467" s="5"/>
+      <c r="R467" s="5"/>
+      <c r="S467" s="5"/>
+      <c r="T467" s="5"/>
+      <c r="U467" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V467" s="2"/>
+      <c r="V467" s="5"/>
     </row>
     <row r="468" spans="1:22">
       <c r="A468" s="2" t="s">
@@ -30167,9 +29981,7 @@
         <v>622</v>
       </c>
       <c r="K470" s="2"/>
-      <c r="L470" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L470" s="7"/>
       <c r="M470" s="2" t="s">
         <v>86</v>
       </c>
@@ -30250,44 +30062,42 @@
       <c r="V471" s="2"/>
     </row>
     <row r="472" spans="1:22">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="5" t="s">
         <v>1495</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2" t="s">
+      <c r="C472" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K472" s="2"/>
-      <c r="L472" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M472" s="2" t="s">
+      <c r="K472" s="5"/>
+      <c r="L472" s="7"/>
+      <c r="M472" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N472" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O472" s="2"/>
-      <c r="P472" s="2"/>
-      <c r="Q472" s="2"/>
-      <c r="R472" s="2"/>
-      <c r="S472" s="2"/>
-      <c r="T472" s="2"/>
-      <c r="U472" s="2" t="s">
+      <c r="N472" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O472" s="5"/>
+      <c r="P472" s="5"/>
+      <c r="Q472" s="5"/>
+      <c r="R472" s="5"/>
+      <c r="S472" s="5"/>
+      <c r="T472" s="5"/>
+      <c r="U472" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V472" s="2"/>
+      <c r="V472" s="5"/>
     </row>
     <row r="473" spans="1:22">
       <c r="A473" s="2" t="s">
@@ -30525,9 +30335,7 @@
         <v>622</v>
       </c>
       <c r="K477" s="2"/>
-      <c r="L477" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L477" s="7"/>
       <c r="M477" s="2" t="s">
         <v>56</v>
       </c>
@@ -30608,44 +30416,42 @@
       <c r="V478" s="2"/>
     </row>
     <row r="479" spans="1:22">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="2" t="s">
+      <c r="C479" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K479" s="2"/>
-      <c r="L479" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M479" s="2" t="s">
+      <c r="K479" s="5"/>
+      <c r="L479" s="7"/>
+      <c r="M479" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N479" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O479" s="2"/>
-      <c r="P479" s="2"/>
-      <c r="Q479" s="2"/>
-      <c r="R479" s="2"/>
-      <c r="S479" s="2"/>
-      <c r="T479" s="2"/>
-      <c r="U479" s="2" t="s">
+      <c r="N479" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O479" s="5"/>
+      <c r="P479" s="5"/>
+      <c r="Q479" s="5"/>
+      <c r="R479" s="5"/>
+      <c r="S479" s="5"/>
+      <c r="T479" s="5"/>
+      <c r="U479" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V479" s="2"/>
+      <c r="V479" s="5"/>
     </row>
     <row r="480" spans="1:22">
       <c r="A480" s="2" t="s">
@@ -30752,46 +30558,44 @@
       <c r="V481" s="2"/>
     </row>
     <row r="482" spans="1:22">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C482" s="2" t="s">
+      <c r="C482" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
-      <c r="H482" s="2"/>
-      <c r="I482" s="2"/>
-      <c r="J482" s="2" t="s">
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
+      <c r="I482" s="5"/>
+      <c r="J482" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="K482" s="2" t="s">
+      <c r="K482" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="L482" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M482" s="2" t="s">
+      <c r="L482" s="7"/>
+      <c r="M482" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N482" s="2" t="s">
+      <c r="N482" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O482" s="2"/>
-      <c r="P482" s="2"/>
-      <c r="Q482" s="2"/>
-      <c r="R482" s="2"/>
-      <c r="S482" s="2"/>
-      <c r="T482" s="2"/>
-      <c r="U482" s="2" t="s">
+      <c r="O482" s="5"/>
+      <c r="P482" s="5"/>
+      <c r="Q482" s="5"/>
+      <c r="R482" s="5"/>
+      <c r="S482" s="5"/>
+      <c r="T482" s="5"/>
+      <c r="U482" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="V482" s="2" t="s">
+      <c r="V482" s="5" t="s">
         <v>791</v>
       </c>
     </row>
@@ -31224,44 +31028,42 @@
       <c r="V490" s="2"/>
     </row>
     <row r="491" spans="1:22">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C491" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D491" s="2"/>
-      <c r="E491" s="2"/>
-      <c r="F491" s="2"/>
-      <c r="G491" s="2"/>
-      <c r="H491" s="2"/>
-      <c r="I491" s="2"/>
-      <c r="J491" s="2" t="s">
+      <c r="C491" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+      <c r="G491" s="5"/>
+      <c r="H491" s="5"/>
+      <c r="I491" s="5"/>
+      <c r="J491" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K491" s="2"/>
-      <c r="L491" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M491" s="2" t="s">
+      <c r="K491" s="5"/>
+      <c r="L491" s="7"/>
+      <c r="M491" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N491" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O491" s="2"/>
-      <c r="P491" s="2"/>
-      <c r="Q491" s="2"/>
-      <c r="R491" s="2"/>
-      <c r="S491" s="2"/>
-      <c r="T491" s="2"/>
-      <c r="U491" s="2" t="s">
+      <c r="N491" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O491" s="5"/>
+      <c r="P491" s="5"/>
+      <c r="Q491" s="5"/>
+      <c r="R491" s="5"/>
+      <c r="S491" s="5"/>
+      <c r="T491" s="5"/>
+      <c r="U491" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V491" s="2"/>
+      <c r="V491" s="5"/>
     </row>
     <row r="492" spans="1:22">
       <c r="A492" s="2" t="s">
@@ -31611,9 +31413,7 @@
         <v>622</v>
       </c>
       <c r="K498" s="2"/>
-      <c r="L498" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L498" s="7"/>
       <c r="M498" s="2" t="s">
         <v>53</v>
       </c>
@@ -31926,44 +31726,42 @@
       <c r="V504" s="2"/>
     </row>
     <row r="505" spans="1:22">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C505" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D505" s="2"/>
-      <c r="E505" s="2"/>
-      <c r="F505" s="2"/>
-      <c r="G505" s="2"/>
-      <c r="H505" s="2"/>
-      <c r="I505" s="2"/>
-      <c r="J505" s="2" t="s">
+      <c r="C505" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+      <c r="G505" s="5"/>
+      <c r="H505" s="5"/>
+      <c r="I505" s="5"/>
+      <c r="J505" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K505" s="2"/>
-      <c r="L505" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M505" s="2" t="s">
+      <c r="K505" s="5"/>
+      <c r="L505" s="7"/>
+      <c r="M505" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N505" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O505" s="2"/>
-      <c r="P505" s="2"/>
-      <c r="Q505" s="2"/>
-      <c r="R505" s="2"/>
-      <c r="S505" s="2"/>
-      <c r="T505" s="2"/>
-      <c r="U505" s="2" t="s">
+      <c r="N505" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O505" s="5"/>
+      <c r="P505" s="5"/>
+      <c r="Q505" s="5"/>
+      <c r="R505" s="5"/>
+      <c r="S505" s="5"/>
+      <c r="T505" s="5"/>
+      <c r="U505" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V505" s="2"/>
+      <c r="V505" s="5"/>
     </row>
     <row r="506" spans="1:22">
       <c r="A506" s="2" t="s">
@@ -32201,9 +31999,7 @@
         <v>622</v>
       </c>
       <c r="K510" s="2"/>
-      <c r="L510" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L510" s="7"/>
       <c r="M510" s="2" t="s">
         <v>115</v>
       </c>
@@ -32257,9 +32053,7 @@
         <v>622</v>
       </c>
       <c r="K511" s="2"/>
-      <c r="L511" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L511" s="7"/>
       <c r="M511" s="2" t="s">
         <v>115</v>
       </c>
@@ -32313,9 +32107,7 @@
         <v>622</v>
       </c>
       <c r="K512" s="2"/>
-      <c r="L512" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L512" s="7"/>
       <c r="M512" s="2" t="s">
         <v>115</v>
       </c>
@@ -32342,46 +32134,44 @@
       <c r="V512" s="2"/>
     </row>
     <row r="513" spans="1:22">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="5" t="s">
         <v>1536</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C513" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2" t="s">
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+      <c r="F513" s="5"/>
+      <c r="G513" s="5"/>
+      <c r="H513" s="5"/>
+      <c r="I513" s="5"/>
+      <c r="J513" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="K513" s="2" t="s">
+      <c r="K513" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="L513" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M513" s="2" t="s">
+      <c r="L513" s="7"/>
+      <c r="M513" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N513" s="2" t="s">
+      <c r="N513" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O513" s="2"/>
-      <c r="P513" s="2"/>
-      <c r="Q513" s="2"/>
-      <c r="R513" s="2"/>
-      <c r="S513" s="2"/>
-      <c r="T513" s="2"/>
-      <c r="U513" s="2" t="s">
+      <c r="O513" s="5"/>
+      <c r="P513" s="5"/>
+      <c r="Q513" s="5"/>
+      <c r="R513" s="5"/>
+      <c r="S513" s="5"/>
+      <c r="T513" s="5"/>
+      <c r="U513" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="V513" s="2" t="s">
+      <c r="V513" s="5" t="s">
         <v>793</v>
       </c>
     </row>
@@ -32814,44 +32604,42 @@
       <c r="V521" s="2"/>
     </row>
     <row r="522" spans="1:22">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C522" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D522" s="2"/>
-      <c r="E522" s="2"/>
-      <c r="F522" s="2"/>
-      <c r="G522" s="2"/>
-      <c r="H522" s="2"/>
-      <c r="I522" s="2"/>
-      <c r="J522" s="2" t="s">
+      <c r="C522" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5"/>
+      <c r="H522" s="5"/>
+      <c r="I522" s="5"/>
+      <c r="J522" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K522" s="2"/>
-      <c r="L522" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M522" s="2" t="s">
+      <c r="K522" s="5"/>
+      <c r="L522" s="7"/>
+      <c r="M522" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N522" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O522" s="2"/>
-      <c r="P522" s="2"/>
-      <c r="Q522" s="2"/>
-      <c r="R522" s="2"/>
-      <c r="S522" s="2"/>
-      <c r="T522" s="2"/>
-      <c r="U522" s="2" t="s">
+      <c r="N522" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O522" s="5"/>
+      <c r="P522" s="5"/>
+      <c r="Q522" s="5"/>
+      <c r="R522" s="5"/>
+      <c r="S522" s="5"/>
+      <c r="T522" s="5"/>
+      <c r="U522" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V522" s="2"/>
+      <c r="V522" s="5"/>
     </row>
     <row r="523" spans="1:22">
       <c r="A523" s="2" t="s">
@@ -33089,9 +32877,7 @@
         <v>622</v>
       </c>
       <c r="K527" s="2"/>
-      <c r="L527" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L527" s="7"/>
       <c r="M527" s="2" t="s">
         <v>119</v>
       </c>
@@ -33145,9 +32931,7 @@
         <v>622</v>
       </c>
       <c r="K528" s="2"/>
-      <c r="L528" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L528" s="7"/>
       <c r="M528" s="2" t="s">
         <v>119</v>
       </c>
@@ -33201,9 +32985,7 @@
         <v>622</v>
       </c>
       <c r="K529" s="2"/>
-      <c r="L529" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L529" s="7"/>
       <c r="M529" s="2" t="s">
         <v>119</v>
       </c>
@@ -33257,9 +33039,7 @@
         <v>622</v>
       </c>
       <c r="K530" s="2"/>
-      <c r="L530" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L530" s="7"/>
       <c r="M530" s="2" t="s">
         <v>119</v>
       </c>
@@ -33313,9 +33093,7 @@
         <v>622</v>
       </c>
       <c r="K531" s="2"/>
-      <c r="L531" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L531" s="7"/>
       <c r="M531" s="2" t="s">
         <v>119</v>
       </c>
@@ -33369,9 +33147,7 @@
         <v>622</v>
       </c>
       <c r="K532" s="2"/>
-      <c r="L532" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L532" s="7"/>
       <c r="M532" s="2" t="s">
         <v>119</v>
       </c>
@@ -33483,9 +33259,7 @@
         <v>700</v>
       </c>
       <c r="K534" s="2"/>
-      <c r="L534" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L534" s="7"/>
       <c r="M534" s="2" t="s">
         <v>119</v>
       </c>
@@ -33539,9 +33313,7 @@
         <v>700</v>
       </c>
       <c r="K535" s="2"/>
-      <c r="L535" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L535" s="7"/>
       <c r="M535" s="2" t="s">
         <v>119</v>
       </c>
@@ -33595,9 +33367,7 @@
         <v>701</v>
       </c>
       <c r="K536" s="2"/>
-      <c r="L536" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L536" s="7"/>
       <c r="M536" s="2" t="s">
         <v>119</v>
       </c>
@@ -33653,9 +33423,7 @@
       <c r="K537" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="L537" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L537" s="7"/>
       <c r="M537" s="2" t="s">
         <v>119</v>
       </c>
@@ -33977,9 +33745,7 @@
         <v>622</v>
       </c>
       <c r="K543" s="2"/>
-      <c r="L543" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L543" s="7"/>
       <c r="M543" s="2" t="s">
         <v>121</v>
       </c>
@@ -34033,9 +33799,7 @@
         <v>622</v>
       </c>
       <c r="K544" s="2"/>
-      <c r="L544" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L544" s="7"/>
       <c r="M544" s="2" t="s">
         <v>121</v>
       </c>
@@ -34193,9 +33957,7 @@
         <v>622</v>
       </c>
       <c r="K547" s="2"/>
-      <c r="L547" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L547" s="7"/>
       <c r="M547" s="2" t="s">
         <v>122</v>
       </c>
@@ -34411,9 +34173,7 @@
         <v>622</v>
       </c>
       <c r="K551" s="2"/>
-      <c r="L551" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L551" s="7"/>
       <c r="M551" s="2" t="s">
         <v>123</v>
       </c>
@@ -34440,46 +34200,44 @@
       <c r="V551" s="2"/>
     </row>
     <row r="552" spans="1:22">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="5" t="s">
         <v>1575</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C552" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D552" s="2"/>
-      <c r="E552" s="2"/>
-      <c r="F552" s="2"/>
-      <c r="G552" s="2"/>
-      <c r="H552" s="2"/>
-      <c r="I552" s="2"/>
-      <c r="J552" s="2" t="s">
+      <c r="C552" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+      <c r="F552" s="5"/>
+      <c r="G552" s="5"/>
+      <c r="H552" s="5"/>
+      <c r="I552" s="5"/>
+      <c r="J552" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K552" s="2" t="s">
+      <c r="K552" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="L552" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M552" s="2" t="s">
+      <c r="L552" s="7"/>
+      <c r="M552" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N552" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O552" s="2"/>
-      <c r="P552" s="2"/>
-      <c r="Q552" s="2"/>
-      <c r="R552" s="2"/>
-      <c r="S552" s="2"/>
-      <c r="T552" s="2"/>
-      <c r="U552" s="2" t="s">
+      <c r="N552" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O552" s="5"/>
+      <c r="P552" s="5"/>
+      <c r="Q552" s="5"/>
+      <c r="R552" s="5"/>
+      <c r="S552" s="5"/>
+      <c r="T552" s="5"/>
+      <c r="U552" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="V552" s="2" t="s">
+      <c r="V552" s="5" t="s">
         <v>797</v>
       </c>
     </row>
@@ -34719,9 +34477,7 @@
         <v>622</v>
       </c>
       <c r="K557" s="2"/>
-      <c r="L557" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L557" s="7"/>
       <c r="M557" s="2" t="s">
         <v>124</v>
       </c>
@@ -34748,46 +34504,44 @@
       <c r="V557" s="2"/>
     </row>
     <row r="558" spans="1:22">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C558" s="2" t="s">
+      <c r="C558" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D558" s="2"/>
-      <c r="E558" s="2"/>
-      <c r="F558" s="2"/>
-      <c r="G558" s="2"/>
-      <c r="H558" s="2"/>
-      <c r="I558" s="2"/>
-      <c r="J558" s="2" t="s">
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+      <c r="G558" s="5"/>
+      <c r="H558" s="5"/>
+      <c r="I558" s="5"/>
+      <c r="J558" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="K558" s="2" t="s">
+      <c r="K558" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="L558" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M558" s="2" t="s">
+      <c r="L558" s="7"/>
+      <c r="M558" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N558" s="2" t="s">
+      <c r="N558" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O558" s="2"/>
-      <c r="P558" s="2"/>
-      <c r="Q558" s="2"/>
-      <c r="R558" s="2"/>
-      <c r="S558" s="2"/>
-      <c r="T558" s="2"/>
-      <c r="U558" s="2" t="s">
+      <c r="O558" s="5"/>
+      <c r="P558" s="5"/>
+      <c r="Q558" s="5"/>
+      <c r="R558" s="5"/>
+      <c r="S558" s="5"/>
+      <c r="T558" s="5"/>
+      <c r="U558" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="V558" s="2" t="s">
+      <c r="V558" s="5" t="s">
         <v>798</v>
       </c>
     </row>
@@ -35033,9 +34787,7 @@
       <c r="K563" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="L563" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L563" s="7"/>
       <c r="M563" s="2" t="s">
         <v>126</v>
       </c>
@@ -35662,46 +35414,44 @@
       <c r="V574" s="2"/>
     </row>
     <row r="575" spans="1:22">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C575" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D575" s="2"/>
-      <c r="E575" s="2"/>
-      <c r="F575" s="2"/>
-      <c r="G575" s="2"/>
-      <c r="H575" s="2"/>
-      <c r="I575" s="2"/>
-      <c r="J575" s="2" t="s">
+      <c r="C575" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D575" s="5"/>
+      <c r="E575" s="5"/>
+      <c r="F575" s="5"/>
+      <c r="G575" s="5"/>
+      <c r="H575" s="5"/>
+      <c r="I575" s="5"/>
+      <c r="J575" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="K575" s="2" t="s">
+      <c r="K575" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="L575" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M575" s="2" t="s">
+      <c r="L575" s="7"/>
+      <c r="M575" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N575" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O575" s="2"/>
-      <c r="P575" s="2"/>
-      <c r="Q575" s="2"/>
-      <c r="R575" s="2"/>
-      <c r="S575" s="2"/>
-      <c r="T575" s="2"/>
-      <c r="U575" s="2" t="s">
+      <c r="N575" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O575" s="5"/>
+      <c r="P575" s="5"/>
+      <c r="Q575" s="5"/>
+      <c r="R575" s="5"/>
+      <c r="S575" s="5"/>
+      <c r="T575" s="5"/>
+      <c r="U575" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="V575" s="2" t="s">
+      <c r="V575" s="5" t="s">
         <v>803</v>
       </c>
     </row>
@@ -35941,9 +35691,7 @@
         <v>622</v>
       </c>
       <c r="K580" s="2"/>
-      <c r="L580" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L580" s="7"/>
       <c r="M580" s="2" t="s">
         <v>82</v>
       </c>
@@ -35997,9 +35745,7 @@
         <v>622</v>
       </c>
       <c r="K581" s="2"/>
-      <c r="L581" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L581" s="7"/>
       <c r="M581" s="2" t="s">
         <v>82</v>
       </c>
@@ -36053,9 +35799,7 @@
         <v>622</v>
       </c>
       <c r="K582" s="2"/>
-      <c r="L582" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L582" s="7"/>
       <c r="M582" s="2" t="s">
         <v>82</v>
       </c>
@@ -36082,46 +35826,44 @@
       <c r="V582" s="2"/>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2" t="s">
+      <c r="C583" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
+      <c r="I583" s="5"/>
+      <c r="J583" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="K583" s="2" t="s">
+      <c r="K583" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="L583" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M583" s="2" t="s">
+      <c r="L583" s="7"/>
+      <c r="M583" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N583" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O583" s="2"/>
-      <c r="P583" s="2"/>
-      <c r="Q583" s="2"/>
-      <c r="R583" s="2"/>
-      <c r="S583" s="2"/>
-      <c r="T583" s="2"/>
-      <c r="U583" s="2" t="s">
+      <c r="N583" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O583" s="5"/>
+      <c r="P583" s="5"/>
+      <c r="Q583" s="5"/>
+      <c r="R583" s="5"/>
+      <c r="S583" s="5"/>
+      <c r="T583" s="5"/>
+      <c r="U583" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="V583" s="2" t="s">
+      <c r="V583" s="5" t="s">
         <v>804</v>
       </c>
     </row>
@@ -36442,46 +36184,44 @@
       <c r="V589" s="2"/>
     </row>
     <row r="590" spans="1:22">
-      <c r="A590" s="2" t="s">
+      <c r="A590" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C590" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D590" s="2"/>
-      <c r="E590" s="2"/>
-      <c r="F590" s="2"/>
-      <c r="G590" s="2"/>
-      <c r="H590" s="2"/>
-      <c r="I590" s="2"/>
-      <c r="J590" s="2" t="s">
+      <c r="C590" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D590" s="5"/>
+      <c r="E590" s="5"/>
+      <c r="F590" s="5"/>
+      <c r="G590" s="5"/>
+      <c r="H590" s="5"/>
+      <c r="I590" s="5"/>
+      <c r="J590" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="K590" s="2" t="s">
+      <c r="K590" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="L590" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M590" s="2" t="s">
+      <c r="L590" s="7"/>
+      <c r="M590" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N590" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O590" s="2"/>
-      <c r="P590" s="2"/>
-      <c r="Q590" s="2"/>
-      <c r="R590" s="2"/>
-      <c r="S590" s="2"/>
-      <c r="T590" s="2"/>
-      <c r="U590" s="2" t="s">
+      <c r="N590" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O590" s="5"/>
+      <c r="P590" s="5"/>
+      <c r="Q590" s="5"/>
+      <c r="R590" s="5"/>
+      <c r="S590" s="5"/>
+      <c r="T590" s="5"/>
+      <c r="U590" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="V590" s="2" t="s">
+      <c r="V590" s="5" t="s">
         <v>805</v>
       </c>
     </row>
@@ -36644,46 +36384,44 @@
       <c r="V593" s="2"/>
     </row>
     <row r="594" spans="1:22">
-      <c r="A594" s="2" t="s">
+      <c r="A594" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B594" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="C594" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D594" s="2"/>
-      <c r="E594" s="2"/>
-      <c r="F594" s="2"/>
-      <c r="G594" s="2"/>
-      <c r="H594" s="2"/>
-      <c r="I594" s="2"/>
-      <c r="J594" s="2" t="s">
+      <c r="D594" s="5"/>
+      <c r="E594" s="5"/>
+      <c r="F594" s="5"/>
+      <c r="G594" s="5"/>
+      <c r="H594" s="5"/>
+      <c r="I594" s="5"/>
+      <c r="J594" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="K594" s="2" t="s">
+      <c r="K594" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="L594" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M594" s="2" t="s">
+      <c r="L594" s="7"/>
+      <c r="M594" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N594" s="2" t="s">
+      <c r="N594" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O594" s="2"/>
-      <c r="P594" s="2"/>
-      <c r="Q594" s="2"/>
-      <c r="R594" s="2"/>
-      <c r="S594" s="2"/>
-      <c r="T594" s="2"/>
-      <c r="U594" s="2" t="s">
+      <c r="O594" s="5"/>
+      <c r="P594" s="5"/>
+      <c r="Q594" s="5"/>
+      <c r="R594" s="5"/>
+      <c r="S594" s="5"/>
+      <c r="T594" s="5"/>
+      <c r="U594" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="V594" s="2" t="s">
+      <c r="V594" s="5" t="s">
         <v>806</v>
       </c>
     </row>
@@ -36950,44 +36688,42 @@
       <c r="V599" s="2"/>
     </row>
     <row r="600" spans="1:22">
-      <c r="A600" s="2" t="s">
+      <c r="A600" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B600" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C600" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D600" s="2"/>
-      <c r="E600" s="2"/>
-      <c r="F600" s="2"/>
-      <c r="G600" s="2"/>
-      <c r="H600" s="2"/>
-      <c r="I600" s="2"/>
-      <c r="J600" s="2" t="s">
+      <c r="C600" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D600" s="5"/>
+      <c r="E600" s="5"/>
+      <c r="F600" s="5"/>
+      <c r="G600" s="5"/>
+      <c r="H600" s="5"/>
+      <c r="I600" s="5"/>
+      <c r="J600" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K600" s="2"/>
-      <c r="L600" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M600" s="2" t="s">
+      <c r="K600" s="5"/>
+      <c r="L600" s="7"/>
+      <c r="M600" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N600" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O600" s="2"/>
-      <c r="P600" s="2"/>
-      <c r="Q600" s="2"/>
-      <c r="R600" s="2"/>
-      <c r="S600" s="2"/>
-      <c r="T600" s="2"/>
-      <c r="U600" s="2" t="s">
+      <c r="N600" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O600" s="5"/>
+      <c r="P600" s="5"/>
+      <c r="Q600" s="5"/>
+      <c r="R600" s="5"/>
+      <c r="S600" s="5"/>
+      <c r="T600" s="5"/>
+      <c r="U600" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V600" s="2"/>
+      <c r="V600" s="5"/>
     </row>
     <row r="601" spans="1:22">
       <c r="A601" s="2" t="s">
@@ -37387,9 +37123,7 @@
         <v>622</v>
       </c>
       <c r="K608" s="2"/>
-      <c r="L608" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L608" s="7"/>
       <c r="M608" s="2" t="s">
         <v>133</v>
       </c>
@@ -37443,9 +37177,7 @@
         <v>622</v>
       </c>
       <c r="K609" s="2"/>
-      <c r="L609" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L609" s="7"/>
       <c r="M609" s="2" t="s">
         <v>133</v>
       </c>
@@ -37499,9 +37231,7 @@
         <v>622</v>
       </c>
       <c r="K610" s="2"/>
-      <c r="L610" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L610" s="7"/>
       <c r="M610" s="2" t="s">
         <v>133</v>
       </c>
@@ -37586,46 +37316,44 @@
       </c>
     </row>
     <row r="612" spans="1:22">
-      <c r="A612" s="2" t="s">
+      <c r="A612" s="5" t="s">
         <v>1635</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B612" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C612" s="2" t="s">
+      <c r="C612" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D612" s="2"/>
-      <c r="E612" s="2"/>
-      <c r="F612" s="2"/>
-      <c r="G612" s="2"/>
-      <c r="H612" s="2"/>
-      <c r="I612" s="2"/>
-      <c r="J612" s="2" t="s">
+      <c r="D612" s="5"/>
+      <c r="E612" s="5"/>
+      <c r="F612" s="5"/>
+      <c r="G612" s="5"/>
+      <c r="H612" s="5"/>
+      <c r="I612" s="5"/>
+      <c r="J612" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="K612" s="2" t="s">
+      <c r="K612" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="L612" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M612" s="2" t="s">
+      <c r="L612" s="7"/>
+      <c r="M612" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N612" s="2" t="s">
+      <c r="N612" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O612" s="2"/>
-      <c r="P612" s="2"/>
-      <c r="Q612" s="2"/>
-      <c r="R612" s="2"/>
-      <c r="S612" s="2"/>
-      <c r="T612" s="2"/>
-      <c r="U612" s="2" t="s">
+      <c r="O612" s="5"/>
+      <c r="P612" s="5"/>
+      <c r="Q612" s="5"/>
+      <c r="R612" s="5"/>
+      <c r="S612" s="5"/>
+      <c r="T612" s="5"/>
+      <c r="U612" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="V612" s="2" t="s">
+      <c r="V612" s="5" t="s">
         <v>809</v>
       </c>
     </row>
@@ -37892,44 +37620,42 @@
       <c r="V617" s="2"/>
     </row>
     <row r="618" spans="1:22">
-      <c r="A618" s="2" t="s">
+      <c r="A618" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B618" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C618" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D618" s="2"/>
-      <c r="E618" s="2"/>
-      <c r="F618" s="2"/>
-      <c r="G618" s="2"/>
-      <c r="H618" s="2"/>
-      <c r="I618" s="2"/>
-      <c r="J618" s="2" t="s">
+      <c r="C618" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D618" s="5"/>
+      <c r="E618" s="5"/>
+      <c r="F618" s="5"/>
+      <c r="G618" s="5"/>
+      <c r="H618" s="5"/>
+      <c r="I618" s="5"/>
+      <c r="J618" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K618" s="2"/>
-      <c r="L618" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M618" s="2" t="s">
+      <c r="K618" s="5"/>
+      <c r="L618" s="7"/>
+      <c r="M618" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N618" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O618" s="2"/>
-      <c r="P618" s="2"/>
-      <c r="Q618" s="2"/>
-      <c r="R618" s="2"/>
-      <c r="S618" s="2"/>
-      <c r="T618" s="2"/>
-      <c r="U618" s="2" t="s">
+      <c r="N618" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O618" s="5"/>
+      <c r="P618" s="5"/>
+      <c r="Q618" s="5"/>
+      <c r="R618" s="5"/>
+      <c r="S618" s="5"/>
+      <c r="T618" s="5"/>
+      <c r="U618" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V618" s="2"/>
+      <c r="V618" s="5"/>
     </row>
     <row r="619" spans="1:22">
       <c r="A619" s="2" t="s">
@@ -38325,9 +38051,7 @@
         <v>622</v>
       </c>
       <c r="K626" s="2"/>
-      <c r="L626" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L626" s="7"/>
       <c r="M626" s="2" t="s">
         <v>136</v>
       </c>
@@ -38381,9 +38105,7 @@
         <v>622</v>
       </c>
       <c r="K627" s="2"/>
-      <c r="L627" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L627" s="7"/>
       <c r="M627" s="2" t="s">
         <v>136</v>
       </c>
@@ -38437,9 +38159,7 @@
         <v>622</v>
       </c>
       <c r="K628" s="2"/>
-      <c r="L628" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L628" s="7"/>
       <c r="M628" s="2" t="s">
         <v>136</v>
       </c>
@@ -38493,9 +38213,7 @@
         <v>622</v>
       </c>
       <c r="K629" s="2"/>
-      <c r="L629" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L629" s="7"/>
       <c r="M629" s="2" t="s">
         <v>136</v>
       </c>
@@ -38549,9 +38267,7 @@
         <v>622</v>
       </c>
       <c r="K630" s="2"/>
-      <c r="L630" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L630" s="7"/>
       <c r="M630" s="2" t="s">
         <v>136</v>
       </c>
@@ -38578,46 +38294,44 @@
       <c r="V630" s="2"/>
     </row>
     <row r="631" spans="1:22">
-      <c r="A631" s="2" t="s">
+      <c r="A631" s="5" t="s">
         <v>1654</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B631" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C631" s="2" t="s">
+      <c r="C631" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D631" s="2"/>
-      <c r="E631" s="2"/>
-      <c r="F631" s="2"/>
-      <c r="G631" s="2"/>
-      <c r="H631" s="2"/>
-      <c r="I631" s="2"/>
-      <c r="J631" s="2" t="s">
+      <c r="D631" s="5"/>
+      <c r="E631" s="5"/>
+      <c r="F631" s="5"/>
+      <c r="G631" s="5"/>
+      <c r="H631" s="5"/>
+      <c r="I631" s="5"/>
+      <c r="J631" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="K631" s="2" t="s">
+      <c r="K631" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="L631" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M631" s="2" t="s">
+      <c r="L631" s="7"/>
+      <c r="M631" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N631" s="2" t="s">
+      <c r="N631" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O631" s="2"/>
-      <c r="P631" s="2"/>
-      <c r="Q631" s="2"/>
-      <c r="R631" s="2"/>
-      <c r="S631" s="2"/>
-      <c r="T631" s="2"/>
-      <c r="U631" s="2" t="s">
+      <c r="O631" s="5"/>
+      <c r="P631" s="5"/>
+      <c r="Q631" s="5"/>
+      <c r="R631" s="5"/>
+      <c r="S631" s="5"/>
+      <c r="T631" s="5"/>
+      <c r="U631" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="V631" s="2" t="s">
+      <c r="V631" s="5" t="s">
         <v>806</v>
       </c>
     </row>
@@ -38884,44 +38598,42 @@
       <c r="V636" s="2"/>
     </row>
     <row r="637" spans="1:22">
-      <c r="A637" s="2" t="s">
+      <c r="A637" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B637" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C637" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D637" s="2"/>
-      <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
-      <c r="H637" s="2"/>
-      <c r="I637" s="2"/>
-      <c r="J637" s="2" t="s">
+      <c r="C637" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D637" s="5"/>
+      <c r="E637" s="5"/>
+      <c r="F637" s="5"/>
+      <c r="G637" s="5"/>
+      <c r="H637" s="5"/>
+      <c r="I637" s="5"/>
+      <c r="J637" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K637" s="2"/>
-      <c r="L637" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M637" s="2" t="s">
+      <c r="K637" s="5"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N637" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O637" s="2"/>
-      <c r="P637" s="2"/>
-      <c r="Q637" s="2"/>
-      <c r="R637" s="2"/>
-      <c r="S637" s="2"/>
-      <c r="T637" s="2"/>
-      <c r="U637" s="2" t="s">
+      <c r="N637" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O637" s="5"/>
+      <c r="P637" s="5"/>
+      <c r="Q637" s="5"/>
+      <c r="R637" s="5"/>
+      <c r="S637" s="5"/>
+      <c r="T637" s="5"/>
+      <c r="U637" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V637" s="2"/>
+      <c r="V637" s="5"/>
     </row>
     <row r="638" spans="1:22">
       <c r="A638" s="2" t="s">
@@ -39317,9 +39029,7 @@
         <v>622</v>
       </c>
       <c r="K645" s="2"/>
-      <c r="L645" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L645" s="7"/>
       <c r="M645" s="2" t="s">
         <v>139</v>
       </c>
@@ -39346,46 +39056,44 @@
       <c r="V645" s="2"/>
     </row>
     <row r="646" spans="1:22">
-      <c r="A646" s="2" t="s">
+      <c r="A646" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="B646" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C646" s="2" t="s">
+      <c r="C646" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D646" s="2"/>
-      <c r="E646" s="2"/>
-      <c r="F646" s="2"/>
-      <c r="G646" s="2"/>
-      <c r="H646" s="2"/>
-      <c r="I646" s="2"/>
-      <c r="J646" s="2" t="s">
+      <c r="D646" s="5"/>
+      <c r="E646" s="5"/>
+      <c r="F646" s="5"/>
+      <c r="G646" s="5"/>
+      <c r="H646" s="5"/>
+      <c r="I646" s="5"/>
+      <c r="J646" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="K646" s="2" t="s">
+      <c r="K646" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="L646" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M646" s="2" t="s">
+      <c r="L646" s="7"/>
+      <c r="M646" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N646" s="2" t="s">
+      <c r="N646" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O646" s="2"/>
-      <c r="P646" s="2"/>
-      <c r="Q646" s="2"/>
-      <c r="R646" s="2"/>
-      <c r="S646" s="2"/>
-      <c r="T646" s="2"/>
-      <c r="U646" s="2" t="s">
+      <c r="O646" s="5"/>
+      <c r="P646" s="5"/>
+      <c r="Q646" s="5"/>
+      <c r="R646" s="5"/>
+      <c r="S646" s="5"/>
+      <c r="T646" s="5"/>
+      <c r="U646" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="V646" s="2" t="s">
+      <c r="V646" s="5" t="s">
         <v>806</v>
       </c>
     </row>
@@ -39513,9 +39221,7 @@
         <v>621</v>
       </c>
       <c r="K649" s="2"/>
-      <c r="L649" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L649" s="7"/>
       <c r="M649" s="2" t="s">
         <v>140</v>
       </c>
@@ -39800,46 +39506,44 @@
       </c>
     </row>
     <row r="655" spans="1:22">
-      <c r="A655" s="2" t="s">
+      <c r="A655" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B655" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C655" s="2" t="s">
+      <c r="C655" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D655" s="2"/>
-      <c r="E655" s="2"/>
-      <c r="F655" s="2"/>
-      <c r="G655" s="2"/>
-      <c r="H655" s="2"/>
-      <c r="I655" s="2"/>
-      <c r="J655" s="2" t="s">
+      <c r="D655" s="5"/>
+      <c r="E655" s="5"/>
+      <c r="F655" s="5"/>
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
+      <c r="I655" s="5"/>
+      <c r="J655" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="K655" s="2" t="s">
+      <c r="K655" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="L655" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M655" s="2" t="s">
+      <c r="L655" s="7"/>
+      <c r="M655" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N655" s="2" t="s">
+      <c r="N655" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O655" s="2"/>
-      <c r="P655" s="2"/>
-      <c r="Q655" s="2"/>
-      <c r="R655" s="2"/>
-      <c r="S655" s="2"/>
-      <c r="T655" s="2"/>
-      <c r="U655" s="2" t="s">
+      <c r="O655" s="5"/>
+      <c r="P655" s="5"/>
+      <c r="Q655" s="5"/>
+      <c r="R655" s="5"/>
+      <c r="S655" s="5"/>
+      <c r="T655" s="5"/>
+      <c r="U655" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="V655" s="2" t="s">
+      <c r="V655" s="5" t="s">
         <v>811</v>
       </c>
     </row>
@@ -40268,44 +39972,42 @@
       </c>
     </row>
     <row r="664" spans="1:22">
-      <c r="A664" s="2" t="s">
+      <c r="A664" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B664" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C664" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D664" s="2"/>
-      <c r="E664" s="2"/>
-      <c r="F664" s="2"/>
-      <c r="G664" s="2"/>
-      <c r="H664" s="2"/>
-      <c r="I664" s="2"/>
-      <c r="J664" s="2" t="s">
+      <c r="C664" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D664" s="5"/>
+      <c r="E664" s="5"/>
+      <c r="F664" s="5"/>
+      <c r="G664" s="5"/>
+      <c r="H664" s="5"/>
+      <c r="I664" s="5"/>
+      <c r="J664" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K664" s="2"/>
-      <c r="L664" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M664" s="2" t="s">
+      <c r="K664" s="5"/>
+      <c r="L664" s="7"/>
+      <c r="M664" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="N664" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O664" s="2"/>
-      <c r="P664" s="2"/>
-      <c r="Q664" s="2"/>
-      <c r="R664" s="2"/>
-      <c r="S664" s="2"/>
-      <c r="T664" s="2"/>
-      <c r="U664" s="2" t="s">
+      <c r="N664" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O664" s="5"/>
+      <c r="P664" s="5"/>
+      <c r="Q664" s="5"/>
+      <c r="R664" s="5"/>
+      <c r="S664" s="5"/>
+      <c r="T664" s="5"/>
+      <c r="U664" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V664" s="2"/>
+      <c r="V664" s="5"/>
     </row>
     <row r="665" spans="1:22">
       <c r="A665" s="2" t="s">
@@ -40574,46 +40276,44 @@
       </c>
     </row>
     <row r="670" spans="1:22">
-      <c r="A670" s="2" t="s">
+      <c r="A670" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B670" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C670" s="2" t="s">
+      <c r="C670" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D670" s="2"/>
-      <c r="E670" s="2"/>
-      <c r="F670" s="2"/>
-      <c r="G670" s="2"/>
-      <c r="H670" s="2"/>
-      <c r="I670" s="2"/>
-      <c r="J670" s="2" t="s">
+      <c r="D670" s="5"/>
+      <c r="E670" s="5"/>
+      <c r="F670" s="5"/>
+      <c r="G670" s="5"/>
+      <c r="H670" s="5"/>
+      <c r="I670" s="5"/>
+      <c r="J670" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="K670" s="2" t="s">
+      <c r="K670" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="L670" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M670" s="2" t="s">
+      <c r="L670" s="7"/>
+      <c r="M670" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="N670" s="2" t="s">
+      <c r="N670" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O670" s="2"/>
-      <c r="P670" s="2"/>
-      <c r="Q670" s="2"/>
-      <c r="R670" s="2"/>
-      <c r="S670" s="2"/>
-      <c r="T670" s="2"/>
-      <c r="U670" s="2" t="s">
+      <c r="O670" s="5"/>
+      <c r="P670" s="5"/>
+      <c r="Q670" s="5"/>
+      <c r="R670" s="5"/>
+      <c r="S670" s="5"/>
+      <c r="T670" s="5"/>
+      <c r="U670" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="V670" s="2" t="s">
+      <c r="V670" s="5" t="s">
         <v>812</v>
       </c>
     </row>
@@ -40884,44 +40584,42 @@
       </c>
     </row>
     <row r="676" spans="1:22">
-      <c r="A676" s="2" t="s">
+      <c r="A676" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B676" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C676" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D676" s="2"/>
-      <c r="E676" s="2"/>
-      <c r="F676" s="2"/>
-      <c r="G676" s="2"/>
-      <c r="H676" s="2"/>
-      <c r="I676" s="2"/>
-      <c r="J676" s="2" t="s">
+      <c r="C676" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+      <c r="G676" s="5"/>
+      <c r="H676" s="5"/>
+      <c r="I676" s="5"/>
+      <c r="J676" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K676" s="2"/>
-      <c r="L676" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M676" s="2" t="s">
+      <c r="K676" s="5"/>
+      <c r="L676" s="7"/>
+      <c r="M676" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N676" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O676" s="2"/>
-      <c r="P676" s="2"/>
-      <c r="Q676" s="2"/>
-      <c r="R676" s="2"/>
-      <c r="S676" s="2"/>
-      <c r="T676" s="2"/>
-      <c r="U676" s="2" t="s">
+      <c r="N676" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O676" s="5"/>
+      <c r="P676" s="5"/>
+      <c r="Q676" s="5"/>
+      <c r="R676" s="5"/>
+      <c r="S676" s="5"/>
+      <c r="T676" s="5"/>
+      <c r="U676" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V676" s="2"/>
+      <c r="V676" s="5"/>
     </row>
     <row r="677" spans="1:22">
       <c r="A677" s="2" t="s">
@@ -41186,46 +40884,44 @@
       <c r="V681" s="2"/>
     </row>
     <row r="682" spans="1:22">
-      <c r="A682" s="2" t="s">
+      <c r="A682" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B682" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C682" s="2" t="s">
+      <c r="C682" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D682" s="2"/>
-      <c r="E682" s="2"/>
-      <c r="F682" s="2"/>
-      <c r="G682" s="2"/>
-      <c r="H682" s="2"/>
-      <c r="I682" s="2"/>
-      <c r="J682" s="2" t="s">
+      <c r="D682" s="5"/>
+      <c r="E682" s="5"/>
+      <c r="F682" s="5"/>
+      <c r="G682" s="5"/>
+      <c r="H682" s="5"/>
+      <c r="I682" s="5"/>
+      <c r="J682" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="K682" s="2" t="s">
+      <c r="K682" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="L682" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M682" s="2" t="s">
+      <c r="L682" s="7"/>
+      <c r="M682" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N682" s="2" t="s">
+      <c r="N682" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O682" s="2"/>
-      <c r="P682" s="2"/>
-      <c r="Q682" s="2"/>
-      <c r="R682" s="2"/>
-      <c r="S682" s="2"/>
-      <c r="T682" s="2"/>
-      <c r="U682" s="2" t="s">
+      <c r="O682" s="5"/>
+      <c r="P682" s="5"/>
+      <c r="Q682" s="5"/>
+      <c r="R682" s="5"/>
+      <c r="S682" s="5"/>
+      <c r="T682" s="5"/>
+      <c r="U682" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="V682" s="2" t="s">
+      <c r="V682" s="5" t="s">
         <v>813</v>
       </c>
     </row>
@@ -41496,44 +41192,42 @@
       </c>
     </row>
     <row r="688" spans="1:22">
-      <c r="A688" s="2" t="s">
+      <c r="A688" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B688" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C688" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D688" s="2"/>
-      <c r="E688" s="2"/>
-      <c r="F688" s="2"/>
-      <c r="G688" s="2"/>
-      <c r="H688" s="2"/>
-      <c r="I688" s="2"/>
-      <c r="J688" s="2" t="s">
+      <c r="C688" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D688" s="5"/>
+      <c r="E688" s="5"/>
+      <c r="F688" s="5"/>
+      <c r="G688" s="5"/>
+      <c r="H688" s="5"/>
+      <c r="I688" s="5"/>
+      <c r="J688" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K688" s="2"/>
-      <c r="L688" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M688" s="2" t="s">
+      <c r="K688" s="5"/>
+      <c r="L688" s="7"/>
+      <c r="M688" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N688" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O688" s="2"/>
-      <c r="P688" s="2"/>
-      <c r="Q688" s="2"/>
-      <c r="R688" s="2"/>
-      <c r="S688" s="2"/>
-      <c r="T688" s="2"/>
-      <c r="U688" s="2" t="s">
+      <c r="N688" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O688" s="5"/>
+      <c r="P688" s="5"/>
+      <c r="Q688" s="5"/>
+      <c r="R688" s="5"/>
+      <c r="S688" s="5"/>
+      <c r="T688" s="5"/>
+      <c r="U688" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V688" s="2"/>
+      <c r="V688" s="5"/>
     </row>
     <row r="689" spans="1:22">
       <c r="A689" s="2" t="s">
@@ -41740,44 +41434,42 @@
       <c r="V692" s="2"/>
     </row>
     <row r="693" spans="1:22">
-      <c r="A693" s="2" t="s">
+      <c r="A693" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B693" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C693" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D693" s="2"/>
-      <c r="E693" s="2"/>
-      <c r="F693" s="2"/>
-      <c r="G693" s="2"/>
-      <c r="H693" s="2"/>
-      <c r="I693" s="2"/>
-      <c r="J693" s="2" t="s">
+      <c r="C693" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D693" s="5"/>
+      <c r="E693" s="5"/>
+      <c r="F693" s="5"/>
+      <c r="G693" s="5"/>
+      <c r="H693" s="5"/>
+      <c r="I693" s="5"/>
+      <c r="J693" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K693" s="2"/>
-      <c r="L693" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M693" s="2" t="s">
+      <c r="K693" s="5"/>
+      <c r="L693" s="7"/>
+      <c r="M693" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N693" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O693" s="2"/>
-      <c r="P693" s="2"/>
-      <c r="Q693" s="2"/>
-      <c r="R693" s="2"/>
-      <c r="S693" s="2"/>
-      <c r="T693" s="2"/>
-      <c r="U693" s="2" t="s">
+      <c r="N693" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O693" s="5"/>
+      <c r="P693" s="5"/>
+      <c r="Q693" s="5"/>
+      <c r="R693" s="5"/>
+      <c r="S693" s="5"/>
+      <c r="T693" s="5"/>
+      <c r="U693" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V693" s="2"/>
+      <c r="V693" s="5"/>
     </row>
     <row r="694" spans="1:22">
       <c r="A694" s="2" t="s">
@@ -41969,9 +41661,7 @@
         <v>622</v>
       </c>
       <c r="K697" s="2"/>
-      <c r="L697" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L697" s="7"/>
       <c r="M697" s="2" t="s">
         <v>144</v>
       </c>
@@ -42098,44 +41788,42 @@
       <c r="V699" s="2"/>
     </row>
     <row r="700" spans="1:22">
-      <c r="A700" s="2" t="s">
+      <c r="A700" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B700" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C700" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D700" s="2"/>
-      <c r="E700" s="2"/>
-      <c r="F700" s="2"/>
-      <c r="G700" s="2"/>
-      <c r="H700" s="2"/>
-      <c r="I700" s="2"/>
-      <c r="J700" s="2" t="s">
+      <c r="C700" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D700" s="5"/>
+      <c r="E700" s="5"/>
+      <c r="F700" s="5"/>
+      <c r="G700" s="5"/>
+      <c r="H700" s="5"/>
+      <c r="I700" s="5"/>
+      <c r="J700" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K700" s="2"/>
-      <c r="L700" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M700" s="2" t="s">
+      <c r="K700" s="5"/>
+      <c r="L700" s="7"/>
+      <c r="M700" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N700" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O700" s="2"/>
-      <c r="P700" s="2"/>
-      <c r="Q700" s="2"/>
-      <c r="R700" s="2"/>
-      <c r="S700" s="2"/>
-      <c r="T700" s="2"/>
-      <c r="U700" s="2" t="s">
+      <c r="N700" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O700" s="5"/>
+      <c r="P700" s="5"/>
+      <c r="Q700" s="5"/>
+      <c r="R700" s="5"/>
+      <c r="S700" s="5"/>
+      <c r="T700" s="5"/>
+      <c r="U700" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V700" s="2"/>
+      <c r="V700" s="5"/>
     </row>
     <row r="701" spans="1:22">
       <c r="A701" s="2" t="s">
@@ -42269,9 +41957,7 @@
         <v>622</v>
       </c>
       <c r="K703" s="2"/>
-      <c r="L703" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L703" s="7"/>
       <c r="M703" s="2" t="s">
         <v>147</v>
       </c>
@@ -42495,9 +42181,7 @@
         <v>622</v>
       </c>
       <c r="K707" s="2"/>
-      <c r="L707" s="4" t="s">
-        <v>818</v>
-      </c>
+      <c r="L707" s="7"/>
       <c r="M707" s="2" t="s">
         <v>147</v>
       </c>
@@ -42524,46 +42208,44 @@
       <c r="V707" s="2"/>
     </row>
     <row r="708" spans="1:22">
-      <c r="A708" s="2" t="s">
+      <c r="A708" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="B708" s="2" t="s">
+      <c r="B708" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C708" s="2" t="s">
+      <c r="C708" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D708" s="2"/>
-      <c r="E708" s="2"/>
-      <c r="F708" s="2"/>
-      <c r="G708" s="2"/>
-      <c r="H708" s="2"/>
-      <c r="I708" s="2"/>
-      <c r="J708" s="2" t="s">
+      <c r="D708" s="5"/>
+      <c r="E708" s="5"/>
+      <c r="F708" s="5"/>
+      <c r="G708" s="5"/>
+      <c r="H708" s="5"/>
+      <c r="I708" s="5"/>
+      <c r="J708" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="K708" s="2" t="s">
+      <c r="K708" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="L708" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M708" s="2" t="s">
+      <c r="L708" s="7"/>
+      <c r="M708" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="N708" s="2" t="s">
+      <c r="N708" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O708" s="2"/>
-      <c r="P708" s="2"/>
-      <c r="Q708" s="2"/>
-      <c r="R708" s="2"/>
-      <c r="S708" s="2"/>
-      <c r="T708" s="2"/>
-      <c r="U708" s="2" t="s">
+      <c r="O708" s="5"/>
+      <c r="P708" s="5"/>
+      <c r="Q708" s="5"/>
+      <c r="R708" s="5"/>
+      <c r="S708" s="5"/>
+      <c r="T708" s="5"/>
+      <c r="U708" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="V708" s="2" t="s">
+      <c r="V708" s="5" t="s">
         <v>815</v>
       </c>
     </row>
@@ -42834,44 +42516,42 @@
       </c>
     </row>
     <row r="714" spans="1:22">
-      <c r="A714" s="2" t="s">
+      <c r="A714" s="5" t="s">
         <v>1737</v>
       </c>
-      <c r="B714" s="2" t="s">
+      <c r="B714" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C714" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D714" s="2"/>
-      <c r="E714" s="2"/>
-      <c r="F714" s="2"/>
-      <c r="G714" s="2"/>
-      <c r="H714" s="2"/>
-      <c r="I714" s="2"/>
-      <c r="J714" s="2" t="s">
+      <c r="C714" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D714" s="5"/>
+      <c r="E714" s="5"/>
+      <c r="F714" s="5"/>
+      <c r="G714" s="5"/>
+      <c r="H714" s="5"/>
+      <c r="I714" s="5"/>
+      <c r="J714" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K714" s="2"/>
-      <c r="L714" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M714" s="2" t="s">
+      <c r="K714" s="5"/>
+      <c r="L714" s="7"/>
+      <c r="M714" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N714" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O714" s="2"/>
-      <c r="P714" s="2"/>
-      <c r="Q714" s="2"/>
-      <c r="R714" s="2"/>
-      <c r="S714" s="2"/>
-      <c r="T714" s="2"/>
-      <c r="U714" s="2" t="s">
+      <c r="N714" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O714" s="5"/>
+      <c r="P714" s="5"/>
+      <c r="Q714" s="5"/>
+      <c r="R714" s="5"/>
+      <c r="S714" s="5"/>
+      <c r="T714" s="5"/>
+      <c r="U714" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V714" s="2"/>
+      <c r="V714" s="5"/>
     </row>
     <row r="715" spans="1:22">
       <c r="A715" s="2" t="s">
@@ -43078,46 +42758,44 @@
       <c r="V718" s="2"/>
     </row>
     <row r="719" spans="1:22">
-      <c r="A719" s="2" t="s">
+      <c r="A719" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="B719" s="2" t="s">
+      <c r="B719" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C719" s="2" t="s">
+      <c r="C719" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D719" s="2"/>
-      <c r="E719" s="2"/>
-      <c r="F719" s="2"/>
-      <c r="G719" s="2"/>
-      <c r="H719" s="2"/>
-      <c r="I719" s="2"/>
-      <c r="J719" s="2" t="s">
+      <c r="D719" s="5"/>
+      <c r="E719" s="5"/>
+      <c r="F719" s="5"/>
+      <c r="G719" s="5"/>
+      <c r="H719" s="5"/>
+      <c r="I719" s="5"/>
+      <c r="J719" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="K719" s="2" t="s">
+      <c r="K719" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="L719" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M719" s="2" t="s">
+      <c r="L719" s="7"/>
+      <c r="M719" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N719" s="2" t="s">
+      <c r="N719" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O719" s="2"/>
-      <c r="P719" s="2"/>
-      <c r="Q719" s="2"/>
-      <c r="R719" s="2"/>
-      <c r="S719" s="2"/>
-      <c r="T719" s="2"/>
-      <c r="U719" s="2" t="s">
+      <c r="O719" s="5"/>
+      <c r="P719" s="5"/>
+      <c r="Q719" s="5"/>
+      <c r="R719" s="5"/>
+      <c r="S719" s="5"/>
+      <c r="T719" s="5"/>
+      <c r="U719" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="V719" s="2" t="s">
+      <c r="V719" s="5" t="s">
         <v>816</v>
       </c>
     </row>
